--- a/config_12.22/fish_2d_fish_server.xlsx
+++ b/config_12.22/fish_2d_fish_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -1691,10 +1691,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>饺子鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>175,</t>
   </si>
   <si>
@@ -1719,19 +1715,19 @@
     <t>182,</t>
   </si>
   <si>
-    <t>"prop_dz_jz",1,0.01,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_dz_jz",0,0.05,0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_dz_jz",0,0.1,0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_dz_jz",0,0.2,0.3</t>
+    <t>"prop_sd_lh",0,0.05,0.1</t>
+  </si>
+  <si>
+    <t>"prop_sd_lh",0,0.1,0.2</t>
+  </si>
+  <si>
+    <t>"prop_sd_lh",0,0.2,0.3</t>
+  </si>
+  <si>
+    <t>"prop_sd_lh",1,0.01,</t>
+  </si>
+  <si>
+    <t>袜子boss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2270,7 +2266,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W209"/>
   <sheetViews>
-    <sheetView topLeftCell="A180" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
       <selection activeCell="I200" sqref="I200"/>
     </sheetView>
   </sheetViews>
@@ -7892,7 +7888,7 @@
         <v>1</v>
       </c>
       <c r="C202" s="37" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D202" s="37"/>
       <c r="E202" s="37"/>
@@ -7928,7 +7924,7 @@
         <v>1</v>
       </c>
       <c r="C203" s="37" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D203" s="37"/>
       <c r="E203" s="37"/>
@@ -7964,7 +7960,7 @@
         <v>1</v>
       </c>
       <c r="C204" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D204" s="37"/>
       <c r="E204" s="37"/>
@@ -8000,7 +7996,7 @@
         <v>1</v>
       </c>
       <c r="C205" s="37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D205" s="37"/>
       <c r="E205" s="37"/>
@@ -8036,7 +8032,7 @@
         <v>1</v>
       </c>
       <c r="C206" s="37" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D206" s="37"/>
       <c r="E206" s="37"/>
@@ -8072,7 +8068,7 @@
         <v>1</v>
       </c>
       <c r="C207" s="37" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D207" s="37"/>
       <c r="E207" s="37"/>
@@ -8108,7 +8104,7 @@
         <v>1</v>
       </c>
       <c r="C208" s="37" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D208" s="37"/>
       <c r="E208" s="37"/>
@@ -8144,7 +8140,7 @@
         <v>1</v>
       </c>
       <c r="C209" s="37" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D209" s="37"/>
       <c r="E209" s="37"/>
@@ -8358,7 +8354,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K181" sqref="K181"/>
+      <selection pane="bottomLeft" activeCell="H188" sqref="H188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16916,7 +16912,7 @@
       </c>
       <c r="H181" s="39" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B181,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C181,activity!A:A,0)),"")</f>
-        <v>饺子鱼+临时活动</v>
+        <v>袜子boss+临时活动</v>
       </c>
       <c r="I181" s="37">
         <f>LOOKUP(use_fish!B181,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C181,activity!A:A,0)),0)</f>
@@ -16964,7 +16960,7 @@
       </c>
       <c r="H182" s="39" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B182,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C182,activity!A:A,0)),"")</f>
-        <v>饺子鱼+临时活动</v>
+        <v>袜子boss+临时活动</v>
       </c>
       <c r="I182" s="37">
         <f>LOOKUP(use_fish!B182,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C182,activity!A:A,0)),0)</f>
@@ -17012,7 +17008,7 @@
       </c>
       <c r="H183" s="39" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B183,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C183,activity!A:A,0)),"")</f>
-        <v>饺子鱼+临时活动</v>
+        <v>袜子boss+临时活动</v>
       </c>
       <c r="I183" s="37">
         <f>LOOKUP(use_fish!B183,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C183,activity!A:A,0)),0)</f>
@@ -17048,8 +17044,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18246,7 +18242,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D45" s="38">
         <v>0</v>
@@ -18269,7 +18265,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D46" s="38">
         <v>0</v>
@@ -18292,7 +18288,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D47" s="38">
         <v>0</v>
@@ -18315,7 +18311,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D48" s="38">
         <v>1</v>
@@ -18426,7 +18422,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19316,7 +19312,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="F36" s="36">
         <v>0</v>
